--- a/test/ws_ex.xlsx
+++ b/test/ws_ex.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Information" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-0CF20BB2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Serie Id-34AE56JH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-E0961C19" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-67GH89BG" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Serie Id-000476B5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Serie Id-A9AA9941" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SAMPLE Id-4EA5A3B8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Serie Id-B54E03C0" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Serie Id-B19318ED" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-E0961C19" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-67GH89BG" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serie Id-000476B5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Serie Id-A9AA9941" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SAMPLE Id-4EA5A3B8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Serie Id-B54E03C0" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="INTERPOLATION Id-20A10A97" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,6 +468,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="112" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SAMPLE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sample every 50.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>50.0 ; linear; True</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;BR&gt;Sample with parameters :&lt;ul&gt;&lt;li&gt;Step : 50.0&lt;li&gt;Kind of interpolation : linear&lt;li&gt;Integrated : True&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,6 +726,112 @@
       </c>
       <c r="B14" t="n">
         <v>4.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>X1Coords</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>X2Coords</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>X1Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>124.8344370860927</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1391.467880794702</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTERPOLATION</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pointers</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>388.3002207505519</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1986.542384105961</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>582.2110375275936</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3467.087748344371</v>
       </c>
     </row>
   </sheetData>
@@ -11923,6 +12107,4372 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="154" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d13Cforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>InterpolationMode</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>X1Coords</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>X2Coords</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-488.1306843267107</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie interpolated</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Another serie</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#7f7f7f</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>&lt;BR&gt;Serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; interpolated with INTERPOLATION &lt;i&gt;&lt;b&gt;Id-20A10A97&lt;/i&gt;&lt;/b&gt; with mode PCHIP&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-B19318ED&lt;/b&gt;&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PCHIP</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>124.8344370860927</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1391.467880794702</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-483.7032423476237</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>388.3002207505519</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1986.542384105961</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-478.833056170628</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>582.2110375275936</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3467.087748344371</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-471.3064048061802</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-466.8789628270932</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-460.6805440563714</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-451.8256600981975</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-442.9707761400236</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-438.9860783588454</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-434.5586363797584</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-429.6884502027627</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-424.818264025767</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-419.9480778487714</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L14" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-409.3222170989627</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-405.3375193177844</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L16" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-395.1544027658844</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-388.9559839951626</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-383.6430536202583</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-380.9865884328061</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L20" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-377.8873790474452</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-371.2462160788148</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L22" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-369.47523928718</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L23" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-367.2615182976365</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-363.2768205164582</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-361.9485879227321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L26" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-360.1776111310974</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-355.7501691520104</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L28" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-351.7654713708321</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L29" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-347.7807735896538</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L30" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-343.7960758084756</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-338.9258896314799</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L32" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-334.0557034544843</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-329.1855172774886</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L34" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-324.3153311004929</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-319.4451449234973</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L36" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-315.0177029444103</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L37" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-310.5902609653234</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L38" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-306.1628189862363</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-301.7353770071494</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-297.7506792259711</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L41" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-293.3232372468842</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="L42" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-289.3385394657059</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L43" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-284.4683532887102</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L44" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-280.0409113096233</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L45" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-275.1707251326276</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L46" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-270.7432831535406</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="L47" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-266.3158411744537</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L48" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-261.8883991953667</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L49" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-257.4609572162797</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L50" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-253.0335152371928</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="L51" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-248.6060732581058</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L52" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-244.1786312790189</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.305</v>
+      </c>
+      <c r="L53" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-239.7511892999319</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L54" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-235.3237473208449</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L55" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-230.4535611438492</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.325</v>
+      </c>
+      <c r="L56" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-226.0261191647623</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L57" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-222.041421383584</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L58" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-217.6139794044971</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L59" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-213.1865374254101</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L60" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-208.7590954463231</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="L61" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-204.7743976651449</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L62" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-200.3469556860579</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L63" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-195.9195137069709</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L64" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-191.492071727884</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-186.6218855508883</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.0433</v>
+      </c>
+      <c r="L66" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-182.1944435718013</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L67" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-177.7670015927143</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L68" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-173.3395596136274</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L69" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-168.9121176345404</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L70" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-164.9274198533622</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L71" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-160.4999778742752</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="L72" t="n">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-156.5152800930969</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.505</v>
+      </c>
+      <c r="L73" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-156.0725358951883</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L74" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-152.08783811401</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L75" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-146.7749077391056</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L76" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-141.0192331662926</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L77" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-135.7063027913882</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L78" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-131.2788608123012</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L79" t="n">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-126.4086746353055</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-121.5384884583099</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L81" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-115.3400696875881</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L82" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-110.0271393126838</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="L83" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-105.5996973335968</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.535</v>
+      </c>
+      <c r="L84" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-102.0577437503272</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L85" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-97.63030177124028</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L86" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-94.97383658378811</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L87" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-90.54639460470113</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L88" t="n">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-85.67620842770546</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-80.80602225070982</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="L90" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-76.37858027162284</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L91" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-71.50839409462719</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L92" t="n">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-66.19546371972282</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L93" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-60.88253334481846</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L94" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-56.4550913657315</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L95" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-52.91313778246192</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L96" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-50.25667259500975</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.1133</v>
+      </c>
+      <c r="L97" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-47.15746320964888</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-43.1727654284706</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-36.97434665774884</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-30.33318368911841</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-25.46299751212274</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-22.36378812676188</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-15.27988096022273</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-8.638717991592273</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-1.997555022961819</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3.315375351942535</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.200863747759925</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.335</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6.857328935212109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>12.17025931011646</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>13.49849190384256</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>16.15495709129473</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>16.59770128920343</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>21.4678874661991</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>27.66630623692085</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>32.09374821600781</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>36.52119019509477</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>41.39137637209045</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>45.37607415326872</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>49.80351613235568</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>54.23095811144265</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>63.08584206961658</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>67.51328404870354</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>71.9407260277905</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>86.99402875668619</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>96.73440111067751</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>110.0167270479384</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>112.6731922353906</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>114.8869132249341</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>120.1998435998384</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>123.2990529851993</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>126.7149022019181</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>130.9804566946214</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>136.8583842188451</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>148.6473803598546</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>152.9415123212033</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>157.7747534861472</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>163.6830808894135</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>169.5896993448477</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>176.02777552839</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>181.9210347495417</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3166</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>192.6055757563881</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>197.3968309106879</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>202.7054164109424</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>207.9959800128622</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>213.2662464363439</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>218.5139404012843</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>223.7367866275799</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>228.9325098351274</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>234.0988347438234</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>239.2334860735646</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>244.3341885442476</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>254.4246457880258</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>259.4098500009142</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>264.3520042343309</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>269.2488332081728</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>274.0980616423364</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>278.8974142567183</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>283.6446157712152</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>288.3373909057237</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>292.9734643801405</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>302.0664052282856</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>306.5187220418072</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>310.9052360748236</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>315.2236720472316</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>319.4717546789278</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>323.6472086898087</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>327.747758799771</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>331.7711297287115</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>335.7150461965268</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>339.5772329231133</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>343.3554146283681</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>347.0473160321874</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>350.6506618544681</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>354.1631768151067</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>360.9066130310446</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>364.1329837261371</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>366.0209844097326</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>367.2594224391742</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>369.6870933942944</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>373.2034027986685</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>376.2917337150301</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>378.9846632481592</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>381.3130014699104</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>383.5493369248943</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>385.6920109339156</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>387.9608925737732</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>390.1508799263792</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>392.5511967041858</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>394.9438436787979</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>397.3286646665817</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>399.4897611765455</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>401.4290107574567</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>403.1481533673706</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>404.8628712339905</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>406.3595724644616</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>406.5731042776616</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>408.0658320039606</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>409.5550397905287</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>411.040687388691</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>412.7341593126916</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>416.1067550069817</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>417.5761522509886</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>417.7857586179618</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>419.668726341672</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>421.3371544117675</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>421.5453526260986</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>423.2080720473127</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>425.0724866621588</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>426.7242156173727</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>428.3706787141259</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.445</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>430.2165805453211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>432.0556561929868</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.475</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>434.0909635173684</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>436.1176205028327</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>438.336811996433</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>440.545238411188</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>442.7427435634639</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>444.929171269627</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>446.9070887365896</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>448.679179660049</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>450.4435699593788</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>452.2001740914768</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>453.9489065132407</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>455.6896816815685</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>457.6144396876594</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>459.9108772963739</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>462.3821236082667</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>465.0239156479893</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>467.6451191430658</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>470.0603772187524</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.325</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>472.0897834898599</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>474.1059399424942</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>475.9271802442832</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>477.7372238624122</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.2166</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>479.5359534538056</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>481.3232516753876</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>483.2759364380347</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>485.2144910744548</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>487.3129790754059</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>489.2214842098734</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>491.1153764687003</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>492.4834851410875</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>492.994499668253</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>494.6898459359668</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>496.3727399491107</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.595</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>497.2094806905077</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>497.8766008992309</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>498.8734763035297</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>500.5247263042926</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>501.9998568224455</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>503.9503423373187</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>505.400829202269</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>506.9999233232381</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>508.5856851165694</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>510.1579972391875</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="L256" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>511.7167423480164</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>514.7930621520042</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>516.3104021610118</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L259" t="n">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>518.1126718159888</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>518.411070760139</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>519.1545809503908</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L262" t="n">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>519.8945263061587</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>521.363663842705</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>522.8183660267021</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L265" t="n">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>525.6839949647457</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>527.0946870326409</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>528.4904743756839</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L268" t="n">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>529.8712396507992</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>531.2368655149111</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L270" t="n">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>532.5872346249439</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L271" t="n">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>533.9222296378219</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>535.2417332104693</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>536.5456279998106</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>537.7056908164387</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>539.1061218562716</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>540.487240312939</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>541.7259122688682</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>542.8268631892739</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>544.0346410741881</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>545.1075967068537</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L281" t="n">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>546.2840569122495</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>547.5589242476112</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>548.7002773347269</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>549.8247308647037</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>550.8221929362768</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>552.0224698809375</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L287" t="n">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>553.8363287100126</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>554.1512025517073</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>555.3949285905909</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L290" t="n">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>556.5127174793435</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>557.510249333728</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>558.4899076834453</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>559.5467479212828</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L294" t="n">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>560.5816630497177</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L295" t="n">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>561.5033376390312</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>562.3171448882158</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>562.9397661683964</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>563.6401985421803</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="L299" t="n">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>564.4989487967557</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.275</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>565.5046685641593</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="L301" t="n">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>566.56346950503</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="L302" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>567.5900612940538</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L303" t="n">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>569.1797061255587</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L304" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>569.906587208735</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L305" t="n">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>570.6835427814697</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L306" t="n">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>571.4366564456601</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L307" t="n">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>572.1657720176725</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="L308" t="n">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>572.807648140888</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L309" t="n">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>573.4905154732802</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L310" t="n">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>574.1489303611056</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L311" t="n">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>574.8953180165968</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L312" t="n">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>575.553561721321</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="L313" t="n">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>576.0794125734427</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L314" t="n">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>576.4351698478779</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L315" t="n">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>576.7319822654285</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L316" t="n">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>576.9735792594601</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L317" t="n">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>577.2565776844298</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L318" t="n">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>577.44103885897</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L319" t="n">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>577.7557267630127</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L320" t="n">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>578.1450853045483</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="L321" t="n">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>578.6374216947287</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="L322" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>579.2820854045168</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L323" t="n">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>579.9921682588094</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.295</v>
+      </c>
+      <c r="L324" t="n">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>580.46856140869</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L325" t="n">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>580.7117692762188</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L326" t="n">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>580.9128982481486</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="L327" t="n">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>581.0544080225271</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L328" t="n">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>581.1878865306513</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.385</v>
+      </c>
+      <c r="L329" t="n">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>581.3334270142509</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.215</v>
+      </c>
+      <c r="L330" t="n">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>581.4862796772898</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="L331" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>581.6728693360268</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L332" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>581.8952315596356</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L333" t="n">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>582.1052752219745</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>582.2090768510424</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L335" t="n">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>583.6402430639657</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>584.5570509850371</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L337" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>585.0809412256493</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.475</v>
+      </c>
+      <c r="L338" t="n">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>585.6048314662615</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.545</v>
+      </c>
+      <c r="L339" t="n">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>586.1287217068738</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L340" t="n">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>586.652611947486</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L341" t="n">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>587.3074747482513</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L342" t="n">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>588.2242826693226</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.465</v>
+      </c>
+      <c r="L343" t="n">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>590.0578985114654</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L344" t="n">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>592.4154045942204</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L345" t="n">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>594.3799929965162</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.225</v>
+      </c>
+      <c r="L346" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>595.8206911581998</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L347" t="n">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>596.7374990792712</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L348" t="n">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>597.7852795604956</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L349" t="n">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>598.702087481567</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L350" t="n">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>599.7498679627914</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="L351" t="n">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>601.0595935643221</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L352" t="n">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>602.5002917260057</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.235</v>
+      </c>
+      <c r="L353" t="n">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>604.2029350079954</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>606.2984959704443</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L355" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>606.4294685305973</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.425</v>
+      </c>
+      <c r="L356" t="n">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>609.3108648539645</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L357" t="n">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>610.7515630156481</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L358" t="n">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>612.1922611773317</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L359" t="n">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>613.7639318991684</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L360" t="n">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>615.335602621005</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L361" t="n">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>616.5143556623825</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L362" t="n">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>617.69310870376</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L363" t="n">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>618.8718617451375</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L364" t="n">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>619.7886696662089</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L365" t="n">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>620.7054775872803</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L366" t="n">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>621.4913129481986</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L367" t="n">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>622.2771483091169</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="L368" t="n">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>623.1939562301883</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L369" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>624.3727092715658</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L370" t="n">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>626.3372976738616</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L371" t="n">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>628.6948037566166</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L372" t="n">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>630.5284195987593</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L373" t="n">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>631.8381452002899</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L374" t="n">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>633.1478708018204</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L375" t="n">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>634.3266238431979</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L376" t="n">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>635.5053768845754</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L377" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>636.5531573657998</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L378" t="n">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>637.6009378470243</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L379" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>638.6487183282488</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L380" t="n">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>639.9584439297794</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L381" t="n">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>640.8752518508508</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="L382" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>641.2681695313099</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L383" t="n">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>641.7920597719221</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L384" t="n">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>642.5778951328405</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L385" t="n">
+        <v>3928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12620,7 +17170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15783,7 +20333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23882,7 +28432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24093,7 +28643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27250,80 +31800,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="112" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Parameters</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SAMPLE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample every 50.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>50.0 ; linear; True</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>&lt;BR&gt;Sample with parameters :&lt;ul&gt;&lt;li&gt;Step : 50.0&lt;li&gt;Kind of interpolation : linear&lt;li&gt;Integrated : True&lt;/ul&gt;</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>